--- a/Datos/Resultados_Ejercicio5.xlsx
+++ b/Datos/Resultados_Ejercicio5.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/ismael_diaz_upm_es/Documents/UPM/_Integracion de Procesos/2023-2024/IntegracionMUIQ/Datos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_E83D2173412FA6264F2C4CBBBD3681D879E2103A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B49009-35EA-4115-98DC-5582F6C923DB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Results_Q" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results_Q!$A$1:$B$73</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -260,8 +238,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,21 +302,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +346,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -410,7 +380,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -445,10 +414,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -621,25 +589,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -663,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -671,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -679,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -687,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -695,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -703,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -711,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -719,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -727,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -735,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -743,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -751,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -759,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -767,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -775,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -783,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -791,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -799,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -807,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -815,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -823,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -831,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -839,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -847,7 +809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -855,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -863,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -871,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -879,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -887,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -895,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -903,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -911,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -919,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -927,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -935,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -943,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -951,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -959,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -967,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -975,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -983,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -991,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -999,7 +961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1007,7 +969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1015,7 +977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1023,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1031,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1039,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1047,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1055,7 +1017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1063,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -1071,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1079,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1087,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1095,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -1103,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1111,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -1119,7 +1081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -1127,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -1135,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -1143,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -1151,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -1159,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1167,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1175,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1183,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -1191,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -1199,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -1207,7 +1169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -1215,49 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N88">
-        <f>370-115/3.8</f>
-        <v>339.73684210526318</v>
-      </c>
-    </row>
-    <row r="89" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N89">
-        <f>+N88-75/3.8</f>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="93" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M93">
-        <f>300+115/2</f>
-        <v>357.5</v>
-      </c>
-      <c r="N93">
-        <f>+M93+20/2</f>
-        <v>367.5</v>
-      </c>
-    </row>
-    <row r="94" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="N94">
-        <f>400-55/2.5</f>
-        <v>378</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B73" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="100"/>
-        <filter val="15"/>
-        <filter val="20"/>
-        <filter val="40"/>
-        <filter val="5"/>
-        <filter val="60"/>
-        <filter val="75"/>
-        <filter val="95"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>